--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C89C882-99A1-4BDF-89E7-F29ED02E539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F15EF8-D6FC-4B9A-84AC-53A980C4948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ssssssssssssss</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>sssssssss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -359,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -368,6 +372,11 @@
     <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="D7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F15EF8-D6FC-4B9A-84AC-53A980C4948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E361FC8E-4384-41F0-A59A-3D3AB0CD6D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,12 +59,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -364,7 +371,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -380,7 +387,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E361FC8E-4384-41F0-A59A-3D3AB0CD6D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72984680-E9EF-4D53-8040-94E8F53501C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -85,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -371,7 +379,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -382,7 +390,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72984680-E9EF-4D53-8040-94E8F53501C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737F37C1-380E-4308-B3F4-1785362E3CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ssssssssssssss</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>aa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -379,7 +383,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -387,6 +391,11 @@
     <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="E5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737F37C1-380E-4308-B3F4-1785362E3CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44941D8-EA71-44A4-BD08-53FF3BEB3404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ssssssssssssss</t>
     <phoneticPr fontId="1"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>aaaaaaaaaaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,7 +387,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -396,6 +400,9 @@
     <row r="5" spans="1:9">
       <c r="E5" t="s">
         <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44941D8-EA71-44A4-BD08-53FF3BEB3404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6721BD92-1EC3-4BC7-9E31-3B3F7198CBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ssssssssssssss</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>bb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -387,7 +391,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -410,6 +414,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="10" spans="1:9">
       <c r="I10" s="1" t="s">
         <v>0</v>
